--- a/probs.xlsx
+++ b/probs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshito/work_space/DeepLearning100knock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshito/Dropbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1780" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>パーセプトロン</t>
     <phoneticPr fontId="1"/>
@@ -160,6 +160,34 @@
     <rPh sb="0" eb="3">
       <t>ガクシュウリツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎編</t>
+    <rPh sb="0" eb="3">
+      <t>キソヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備編</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンビヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像処理編</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショリヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク編</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -483,130 +511,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
